--- a/public/template/po-nonms.xlsx
+++ b/public/template/po-nonms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7AAD25-02FC-8E44-825F-55329321669F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575AA529-04B3-914D-9F18-0FA8ACB344CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="940" windowWidth="33600" windowHeight="19280" xr2:uid="{73854F60-91B1-4749-8CA0-78A458B9CCA9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{73854F60-91B1-4749-8CA0-78A458B9CCA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NO WO</t>
   </si>
@@ -74,28 +74,7 @@
     <t>SNO Rectification</t>
   </si>
   <si>
-    <t xml:space="preserve">PO </t>
-  </si>
-  <si>
     <t>PO LINE ITEM</t>
-  </si>
-  <si>
-    <t>BAST NO</t>
-  </si>
-  <si>
-    <t>GR NO</t>
-  </si>
-  <si>
-    <t>GR DATE</t>
-  </si>
-  <si>
-    <t>INVOICE DATE</t>
-  </si>
-  <si>
-    <t>INVOICE NO</t>
-  </si>
-  <si>
-    <t>PAYMENT DATE</t>
   </si>
 </sst>
 </file>
@@ -151,10 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,28 +447,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C521F0-4ED0-AE40-A04E-C795D0297645}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,27 +509,6 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/po-nonms.xlsx
+++ b/public/template/po-nonms.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramdoni/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575AA529-04B3-914D-9F18-0FA8ACB344CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081F0C10-7A51-074F-AB65-F57F618C1DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" xr2:uid="{73854F60-91B1-4749-8CA0-78A458B9CCA9}"/>
+    <workbookView xWindow="-21060" yWindow="3240" windowWidth="20740" windowHeight="11160" activeTab="1" xr2:uid="{73854F60-91B1-4749-8CA0-78A458B9CCA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Information" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>NO WO</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Site ID</t>
   </si>
   <si>
@@ -75,13 +73,35 @@
   </si>
   <si>
     <t>PO LINE ITEM</t>
+  </si>
+  <si>
+    <t>Sub Region</t>
+  </si>
+  <si>
+    <t>North Sumatera (NS)</t>
+  </si>
+  <si>
+    <t>South Sumatera (SS)</t>
+  </si>
+  <si>
+    <t>West Java (WJ)</t>
+  </si>
+  <si>
+    <t>Central Java North (CJN)</t>
+  </si>
+  <si>
+    <t>Central Java South (CJS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,8 +123,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +151,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,15 +166,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,24 +514,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C521F0-4ED0-AE40-A04E-C795D0297645}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -472,47 +543,116 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{404123CF-13A0-4371-B2D6-BCFC108FBBED}">
+          <x14:formula1>
+            <xm:f>Information!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>F13 B2:B31 B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD78F42E-DE26-4649-A417-2B307FD97DC8}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>